--- a/src/main/resources/template/设备点位信息模板.xlsx
+++ b/src/main/resources/template/设备点位信息模板.xlsx
@@ -13,8 +13,390 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+device_id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+device_name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+bay_id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+bay_name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+main_device_id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+main_device_name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+device_type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+meter_type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+appearance_type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+save_type_list</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+recognition_type_list</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+phase</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+device_info</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+device_type_item_name</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>间隔ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集/保存文件类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>设备点位ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,47 +406,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>间隔ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主设备ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表计类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外观类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集/保存文件类型列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别类型列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注信息</t>
+    <t>设备类型名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +436,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -422,12 +785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,52 +807,57 @@
     <col min="11" max="11" width="16.875" customWidth="1"/>
     <col min="12" max="12" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/设备点位信息模板.xlsx
+++ b/src/main/resources/template/设备点位信息模板.xlsx
@@ -87,11 +87,59 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+component_id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+component_name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 bay_id</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>间隔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +463,14 @@
   </si>
   <si>
     <t>设备类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,31 +842,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="25.375" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="2" max="4" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="25.375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -818,39 +874,45 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
